--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="E3" s="33" t="n"/>
       <c r="F3" s="31" t="n"/>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="E4" s="34" t="n"/>
       <c r="F4" s="32" t="n"/>
@@ -967,7 +967,7 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="19" t="inlineStr">
         <is>
-          <t>DerniÃ¨re update le 25.02.25 Ã  01:08</t>
+          <t>Derniere update : 27.02.25 / 18:56</t>
         </is>
       </c>
       <c r="N13" s="1" t="n"/>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E3" s="11" t="n"/>
       <c r="F3" s="30" t="n"/>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="9" t="n"/>
       <c r="F4" s="29" t="n"/>
@@ -1280,7 +1280,7 @@
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>DerniÃ¨re update le 25.02.25 Ã  01:08</t>
+          <t>Derniere update : 27.02.25 / 18:56</t>
         </is>
       </c>
       <c r="N13" s="3" t="n"/>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="15" t="n"/>
       <c r="F3" s="35" t="n"/>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="14" t="n"/>
       <c r="F4" s="36" t="n"/>
@@ -1601,7 +1601,7 @@
       <c r="A13" s="13" t="n"/>
       <c r="B13" s="25" t="inlineStr">
         <is>
-          <t>DerniÃ¨re update le 25.02.25 Ã  01:08</t>
+          <t>Derniere update : 27.02.25 / 18:56</t>
         </is>
       </c>
       <c r="N13" s="13" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="E3" s="33" t="n"/>
       <c r="F3" s="31" t="n"/>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="E4" s="34" t="n"/>
       <c r="F4" s="32" t="n"/>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="D5" s="28" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E5" s="33" t="n"/>
       <c r="F5" s="31" t="n"/>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="D6" s="32" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="34" t="n"/>
       <c r="F6" s="32" t="n"/>
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="D7" s="31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="33" t="n"/>
       <c r="F7" s="31" t="n"/>
@@ -967,7 +967,7 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="19" t="inlineStr">
         <is>
-          <t>Derniere update : 27.02.25 / 18:56</t>
+          <t>Derniere update : 28.02.25 / 00:12</t>
         </is>
       </c>
       <c r="N13" s="1" t="n"/>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="11" t="n"/>
       <c r="F3" s="30" t="n"/>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9" t="n"/>
       <c r="F4" s="29" t="n"/>
@@ -1126,11 +1126,11 @@
       </c>
       <c r="C5" s="28" t="inlineStr">
         <is>
-          <t>_Luucas</t>
+          <t>leleox</t>
         </is>
       </c>
       <c r="D5" s="28" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="30" t="n"/>
@@ -1152,11 +1152,11 @@
       </c>
       <c r="C6" s="29" t="inlineStr">
         <is>
-          <t>ely9615</t>
+          <t>_Luucas</t>
         </is>
       </c>
       <c r="D6" s="29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="9" t="n"/>
       <c r="F6" s="29" t="n"/>
@@ -1178,11 +1178,11 @@
       </c>
       <c r="C7" s="30" t="inlineStr">
         <is>
-          <t>leleox</t>
+          <t>ely9615</t>
         </is>
       </c>
       <c r="D7" s="30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="11" t="n"/>
       <c r="F7" s="30" t="n"/>
@@ -1280,7 +1280,7 @@
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Derniere update : 27.02.25 / 18:56</t>
+          <t>Derniere update : 28.02.25 / 00:12</t>
         </is>
       </c>
       <c r="N13" s="3" t="n"/>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" s="15" t="n"/>
       <c r="F3" s="35" t="n"/>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="14" t="n"/>
       <c r="F4" s="36" t="n"/>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="D5" s="37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="15" t="n"/>
       <c r="F5" s="35" t="n"/>
@@ -1601,7 +1601,7 @@
       <c r="A13" s="13" t="n"/>
       <c r="B13" s="25" t="inlineStr">
         <is>
-          <t>Derniere update : 27.02.25 / 18:56</t>
+          <t>Derniere update : 28.02.25 / 00:12</t>
         </is>
       </c>
       <c r="N13" s="13" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E4" s="34" t="n"/>
       <c r="F4" s="32" t="n"/>
@@ -967,7 +967,7 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="19" t="inlineStr">
         <is>
-          <t>Derniere update : 28.02.25 / 00:12</t>
+          <t>Derniere update : 28.02.25 / 00:18</t>
         </is>
       </c>
       <c r="N13" s="1" t="n"/>
@@ -1280,7 +1280,7 @@
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Derniere update : 28.02.25 / 00:12</t>
+          <t>Derniere update : 28.02.25 / 00:18</t>
         </is>
       </c>
       <c r="N13" s="3" t="n"/>
@@ -1601,7 +1601,7 @@
       <c r="A13" s="13" t="n"/>
       <c r="B13" s="25" t="inlineStr">
         <is>
-          <t>Derniere update : 28.02.25 / 00:12</t>
+          <t>Derniere update : 28.02.25 / 00:18</t>
         </is>
       </c>
       <c r="N13" s="13" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="E3" s="33" t="n"/>
       <c r="F3" s="31" t="n"/>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="E4" s="34" t="n"/>
       <c r="F4" s="32" t="n"/>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="D5" s="28" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E5" s="33" t="n"/>
       <c r="F5" s="31" t="n"/>
@@ -884,9 +884,19 @@
     </row>
     <row r="8" ht="36.75" customHeight="1" s="17">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="32" t="n"/>
-      <c r="C8" s="32" t="n"/>
-      <c r="D8" s="32" t="n"/>
+      <c r="B8" s="32" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="C8" s="32" t="inlineStr">
+        <is>
+          <t>_Luucas</t>
+        </is>
+      </c>
+      <c r="D8" s="32" t="n">
+        <v>14</v>
+      </c>
       <c r="E8" s="34" t="n"/>
       <c r="F8" s="32" t="n"/>
       <c r="G8" s="32" t="n"/>
@@ -967,7 +977,7 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="19" t="inlineStr">
         <is>
-          <t>Derniere update : 28.02.25 / 00:18</t>
+          <t>Derniere update : 28.02.25 / 17:29</t>
         </is>
       </c>
       <c r="N13" s="1" t="n"/>
@@ -1074,11 +1084,11 @@
       </c>
       <c r="C3" s="26" t="inlineStr">
         <is>
-          <t>THO70</t>
+          <t>Towax_</t>
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="11" t="n"/>
       <c r="F3" s="30" t="n"/>
@@ -1100,11 +1110,11 @@
       </c>
       <c r="C4" s="27" t="inlineStr">
         <is>
-          <t>Towax_</t>
+          <t>THO70</t>
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4" s="9" t="n"/>
       <c r="F4" s="29" t="n"/>
@@ -1280,7 +1290,7 @@
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Derniere update : 28.02.25 / 00:18</t>
+          <t>Derniere update : 28.02.25 / 17:29</t>
         </is>
       </c>
       <c r="N13" s="3" t="n"/>
@@ -1399,7 +1409,7 @@
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="15" t="n"/>
       <c r="F3" s="35" t="n"/>
@@ -1451,7 +1461,7 @@
         </is>
       </c>
       <c r="D5" s="37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="15" t="n"/>
       <c r="F5" s="35" t="n"/>
@@ -1601,7 +1611,7 @@
       <c r="A13" s="13" t="n"/>
       <c r="B13" s="25" t="inlineStr">
         <is>
-          <t>Derniere update : 28.02.25 / 00:18</t>
+          <t>Derniere update : 28.02.25 / 17:29</t>
         </is>
       </c>
       <c r="N13" s="13" t="n"/>

--- a/cobblemon_module/output.xlsx
+++ b/cobblemon_module/output.xlsx
@@ -761,11 +761,11 @@
       </c>
       <c r="C3" s="26" t="inlineStr">
         <is>
-          <t>THO70</t>
+          <t>Towax_</t>
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>405</v>
+        <v>581</v>
       </c>
       <c r="E3" s="33" t="n"/>
       <c r="F3" s="31" t="n"/>
@@ -787,11 +787,11 @@
       </c>
       <c r="C4" s="27" t="inlineStr">
         <is>
-          <t>Towax_</t>
+          <t>THO70</t>
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>272</v>
+        <v>536</v>
       </c>
       <c r="E4" s="34" t="n"/>
       <c r="F4" s="32" t="n"/>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="D6" s="32" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6" s="34" t="n"/>
       <c r="F6" s="32" t="n"/>
@@ -977,7 +977,7 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="19" t="inlineStr">
         <is>
-          <t>Derniere update : 28.02.25 / 17:29</t>
+          <t>Derniere update : 07.03.25 / 17:52</t>
         </is>
       </c>
       <c r="N13" s="1" t="n"/>
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="E3" s="11" t="n"/>
       <c r="F3" s="30" t="n"/>
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E4" s="9" t="n"/>
       <c r="F4" s="29" t="n"/>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D7" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="11" t="n"/>
       <c r="F7" s="30" t="n"/>
@@ -1207,9 +1207,19 @@
     </row>
     <row r="8" ht="36.75" customHeight="1" s="17">
       <c r="A8" s="3" t="n"/>
-      <c r="B8" s="29" t="n"/>
-      <c r="C8" s="29" t="n"/>
-      <c r="D8" s="29" t="n"/>
+      <c r="B8" s="29" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>ely9615</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" s="9" t="n"/>
       <c r="F8" s="29" t="n"/>
       <c r="G8" s="29" t="n"/>
@@ -1290,7 +1300,7 @@
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Derniere update : 28.02.25 / 17:29</t>
+          <t>Derniere update : 07.03.25 / 17:52</t>
         </is>
       </c>
       <c r="N13" s="3" t="n"/>
@@ -1409,7 +1419,7 @@
         </is>
       </c>
       <c r="D3" s="26" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3" s="15" t="n"/>
       <c r="F3" s="35" t="n"/>
@@ -1435,7 +1445,7 @@
         </is>
       </c>
       <c r="D4" s="27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="14" t="n"/>
       <c r="F4" s="36" t="n"/>
@@ -1528,9 +1538,19 @@
     </row>
     <row r="8" ht="36.75" customHeight="1" s="17">
       <c r="A8" s="13" t="n"/>
-      <c r="B8" s="36" t="n"/>
-      <c r="C8" s="36" t="n"/>
-      <c r="D8" s="36" t="n"/>
+      <c r="B8" s="36" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="C8" s="36" t="inlineStr">
+        <is>
+          <t>ely9615</t>
+        </is>
+      </c>
+      <c r="D8" s="36" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="36" t="n"/>
       <c r="G8" s="36" t="n"/>
@@ -1611,7 +1631,7 @@
       <c r="A13" s="13" t="n"/>
       <c r="B13" s="25" t="inlineStr">
         <is>
-          <t>Derniere update : 28.02.25 / 17:29</t>
+          <t>Derniere update : 07.03.25 / 17:52</t>
         </is>
       </c>
       <c r="N13" s="13" t="n"/>
